--- a/outlier_detection/merge_df.xlsx
+++ b/outlier_detection/merge_df.xlsx
@@ -455,7 +455,7 @@
         <v>23801</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         <v>23801</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         <v>23801</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>23801</v>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         <v>23801</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>23801</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>23801</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         <v>23801</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>23801</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>23801</v>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>23801</v>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>23801</v>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>23801</v>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>23801</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>23801</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>23801</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>23801</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>23801</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>23895</v>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>24256</v>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>24256</v>
       </c>
       <c r="B62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>25400</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>25400</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>25400</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>25400</v>
       </c>
       <c r="B111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>25400</v>
       </c>
       <c r="B116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>25400</v>
       </c>
       <c r="B120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>25400</v>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>25400</v>
       </c>
       <c r="B126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>25400</v>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>25400</v>
       </c>
       <c r="B128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>25400</v>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>25400</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>25400</v>
       </c>
       <c r="B139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>25400</v>
       </c>
       <c r="B140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>25400</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>25400</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>25400</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>25400</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>25400</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>25400</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>25400</v>
       </c>
       <c r="B159" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>25400</v>
       </c>
       <c r="B165" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>25400</v>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>25961</v>
       </c>
       <c r="B176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>26354</v>
       </c>
       <c r="B177" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>26354</v>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>26354</v>
       </c>
       <c r="B184" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>26354</v>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>26527</v>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>26715</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>26715</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>26715</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>26715</v>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>26715</v>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>26715</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>26715</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>26715</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>26715</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>26715</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>26715</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>26715</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>26715</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>26745</v>
       </c>
       <c r="B239" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>27402</v>
       </c>
       <c r="B261" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>27557</v>
       </c>
       <c r="B262" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>27557</v>
       </c>
       <c r="B266" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>27557</v>
       </c>
       <c r="B267" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>27557</v>
       </c>
       <c r="B268" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>27557</v>
       </c>
       <c r="B271" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>27557</v>
       </c>
       <c r="B272" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>27791</v>
       </c>
       <c r="B273" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>27791</v>
       </c>
       <c r="B278" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>27791</v>
       </c>
       <c r="B281" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>27791</v>
       </c>
       <c r="B282" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>28262</v>
       </c>
       <c r="B303" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>28624</v>
       </c>
       <c r="B312" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>28624</v>
       </c>
       <c r="B318" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
